--- a/inputXls/Exams.xlsx
+++ b/inputXls/Exams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school\inputXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5661B6F6-002C-4C46-8EC5-9749CAE77793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6955ADD-3937-4C5D-A66C-652D9928F098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="3495" windowWidth="28800" windowHeight="11295" xr2:uid="{F67C996A-73B3-4573-9201-BA0E8F41AFD4}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="28800" windowHeight="11295" xr2:uid="{F67C996A-73B3-4573-9201-BA0E8F41AFD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="17">
   <si>
     <t>classId</t>
   </si>
@@ -66,12 +66,33 @@
   <si>
     <t>status</t>
   </si>
+  <si>
+    <t>Salah  satu  faktor  yang  menyebabkan  sejarah  tidak  dapat  dipisahkan  dari  kehidupan manusia adalah …</t>
+  </si>
+  <si>
+    <t>manusia merupakan penggerak sejarah</t>
+  </si>
+  <si>
+    <t>sejarah merupakan ilmu yang mempelajari manusia</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>manusia selalu mengalami perubahan di dalam kehidupannya</t>
+  </si>
+  <si>
+    <t>sejarah selalu membahas kehidupan manusia dan lingkungannya</t>
+  </si>
+  <si>
+    <t>Sesuatu bisa dikatakan sebagai sejarah jika terdapat saksi dan bukti</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +105,12 @@
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,10 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,15 +455,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327BCA38-1E60-49BB-8577-62FB28507236}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,29 +488,1581 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>a</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J48" ca="1" si="0">CHOOSE(RANDBETWEEN(1,5),"a","b","c","d","e")</f>
+        <v>a</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>